--- a/SAX/test/sum.xlsx
+++ b/SAX/test/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmppro\SAX\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4613AF6B-379B-4762-8EA3-87115E111BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A01A29-0ED9-4871-B411-68B300D0CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2400" windowWidth="17280" windowHeight="9024" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2328" windowWidth="17280" windowHeight="9024" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="随机" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="0.2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>ArticularyWordRecognition</t>
   </si>
@@ -111,6 +113,10 @@
   </si>
   <si>
     <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2639,92 +2645,451 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CB0ECA-15CB-4586-8997-0476E392F1BD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.53599999999999992</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>0.51070270270270268</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.76585365853658505</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.775609756097561</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.78048780487804803</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.78048780487804803</v>
+      </c>
+      <c r="F4">
+        <v>0.78536585400000003</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>0.77756097567804849</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.76519999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B5" s="1">
         <v>0.83888888888888802</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C5" s="1">
         <v>0.81111111111111101</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D5" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E5" s="1">
         <v>0.86111111111111105</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F5" s="1">
         <v>0.83888888888888802</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>0.83666666666666623</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.84409999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC18F205-0894-46F2-8E9C-6CB161637D39}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>0.48648648648648601</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
         <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="E2" s="1">
-        <v>0.52702702702702697</v>
+        <v>0.54054054054054002</v>
       </c>
       <c r="F2" s="1">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55405405405405395</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.52291891891891873</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0.49</v>
+        <v>0.51351351351351304</v>
       </c>
       <c r="C3" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="D3" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.58108108108108103</v>
       </c>
       <c r="E3" s="1">
-        <v>0.53</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F3" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>0.52691891891891873</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.76585365853658505</v>
+        <v>0.73658536585365797</v>
       </c>
       <c r="C4" s="1">
-        <v>0.775609756097561</v>
+        <v>0.75121951219512195</v>
       </c>
       <c r="D4" s="1">
-        <v>0.78048780487804803</v>
+        <v>0.75609756097560898</v>
       </c>
       <c r="E4" s="1">
-        <v>0.78048780487804803</v>
+        <v>0.75121951219512195</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.74634146341463403</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>0.74829268292682904</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.76519999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.85555555555555496</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.85555555555555496</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>0.85444444444444412</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.84409999999999996</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
+    <sortCondition ref="A2:A5"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B2DB23-03B0-4F25-9237-64868BCDC363}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G4" si="0">AVERAGE(B2:F2)</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.51351351351351304</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.62162162162162105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.56756756756756699</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.51351351351351304</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.54864864864864826</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.75121951219512195</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.76097560975609702</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.74634146341463403</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.75609756097560898</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.76097560975609702</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.75512195121951176</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.76519999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.85555555555555496</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.89444444444444404</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>0.86333333333333306</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.84409999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
+    <sortCondition ref="A1:A4"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SAX/test/sum.xlsx
+++ b/SAX/test/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmppro\SAX\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A01A29-0ED9-4871-B411-68B300D0CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2696F408-65BD-47D8-AB57-CFAC3E11440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2328" windowWidth="17280" windowHeight="9024" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4656" yWindow="2784" windowWidth="17664" windowHeight="8700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="随机" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>ArticularyWordRecognition</t>
   </si>
@@ -451,12 +452,12 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -500,7 +501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +549,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -596,7 +597,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -644,7 +645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -692,7 +693,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -740,7 +741,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -788,7 +789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -836,7 +837,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -884,7 +885,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -932,7 +933,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -980,7 +981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L19">
         <f>AVERAGE(L2:L18)</f>
         <v>0.70877283742973951</v>
@@ -1341,9 +1342,9 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G19">
         <v>0.70836648199999996</v>
       </c>
@@ -1940,12 +1941,12 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G19">
         <f>AVERAGE(G2:G18)</f>
         <v>0.69362948654908019</v>
@@ -2560,9 +2561,9 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2651,9 +2652,9 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>0.52210000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>0.76519999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2802,9 +2803,9 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>0.52210000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>0.76519999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2949,13 +2950,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B2DB23-03B0-4F25-9237-64868BCDC363}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>0.52210000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>0.76519999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3094,4 +3095,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D57B6D-0407-40CC-BC82-952A3726B502}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.56756756756756699</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.54751351351351341</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H4" si="0">AVERAGE(C2:G2)</f>
+        <v>0.54101621621621609</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.56756756756756699</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.51351351351351304</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>0.5256216216216214</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.53074594594594571</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.74634146341463403</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.76097560975609702</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.74634146341463403</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.75121951219512195</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>0.75121951219512173</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.75243902439024368</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.76519999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.85555555555555496</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.87222222222222201</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.87222222222222201</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>0.87333333333333285</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(C5:G5)</f>
+        <v>0.87688888888888861</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.84409999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+    <sortCondition ref="A1:A4"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SAX/test/sum.xlsx
+++ b/SAX/test/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmppro\SAX\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2696F408-65BD-47D8-AB57-CFAC3E11440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165323BA-ADED-46C5-9E40-A59B688DA703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="2784" windowWidth="17664" windowHeight="8700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1440" windowWidth="21840" windowHeight="13140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="随机" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId8"/>
+    <sheet name="sax+leader" sheetId="10" r:id="rId8"/>
+    <sheet name="sax+sfa+leader" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>ArticularyWordRecognition</t>
   </si>
@@ -119,6 +120,19 @@
   <si>
     <t>CIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 60</t>
+  </si>
+  <si>
+    <t>0.3 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>CIF</t>
   </si>
 </sst>
 </file>
@@ -449,7 +463,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2951,7 +2965,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3098,11 +3112,150 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G4" si="0">AVERAGE(B2:F2)</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.45945945945945899</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.50540540540540513</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.75609756097560898</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.75609756097560898</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.75609756097560898</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.76519999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.87222222222222201</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>0.8655555555555553</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.84409999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D57B6D-0407-40CC-BC82-952A3726B502}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3111,11 +3264,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3141,12 +3312,11 @@
         <f>AVERAGE(B2:F2)</f>
         <v>0.54751351351351341</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H4" si="0">AVERAGE(C2:G2)</f>
-        <v>0.54101621621621609</v>
+      <c r="H2" s="1">
+        <v>0.53900000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>0.53900000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3169,15 +3339,14 @@
         <v>0.52</v>
       </c>
       <c r="G3">
-        <f>AVERAGE(B3:F3)</f>
+        <f t="shared" ref="G3:G5" si="0">AVERAGE(B3:F3)</f>
         <v>0.5256216216216214</v>
       </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0.53074594594594571</v>
+      <c r="H3" s="1">
+        <v>0.52210000000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>0.52210000000000001</v>
+        <v>0.56216200000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3197,15 +3366,14 @@
         <v>0.75121951219512195</v>
       </c>
       <c r="G4">
-        <f>AVERAGE(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>0.75121951219512173</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.75243902439024368</v>
+      <c r="H4" s="1">
+        <v>0.76519999999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>0.76519999999999999</v>
+        <v>0.77365899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3228,15 +3396,111 @@
         <v>0.87222222222222201</v>
       </c>
       <c r="G5">
-        <f>AVERAGE(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>0.87333333333333285</v>
       </c>
-      <c r="H5">
-        <f>AVERAGE(C5:G5)</f>
-        <v>0.87688888888888861</v>
+      <c r="H5" s="1">
+        <v>0.84409999999999996</v>
       </c>
       <c r="I5" s="1">
+        <v>0.86111110000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.54751351351351341</v>
+      </c>
+      <c r="C9">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.5256216216216214</v>
+      </c>
+      <c r="C10">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.56216200000000005</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.75121951219512173</v>
+      </c>
+      <c r="C11">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.77365899999999999</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.87333333333333285</v>
+      </c>
+      <c r="C12">
         <v>0.84409999999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.86111110000000002</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
